--- a/docs/CodeSystem-onc-observation-codes.xlsx
+++ b/docs/CodeSystem-onc-observation-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="196">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:13:58+00:00</t>
+    <t>2025-12-26T15:22:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>30</t>
+    <t>53</t>
   </si>
   <si>
     <t>Level</t>
@@ -394,6 +394,213 @@
   </si>
   <si>
     <t>Deeply pigmented dark brown to black; never burns, tans very easily</t>
+  </si>
+  <si>
+    <t>what-matters</t>
+  </si>
+  <si>
+    <t>What Matters to Me</t>
+  </si>
+  <si>
+    <t>Patient-identified priorities and non-clinical goals</t>
+  </si>
+  <si>
+    <t>patient-story</t>
+  </si>
+  <si>
+    <t>Patient Story</t>
+  </si>
+  <si>
+    <t>Narrative summary of patient background, preferences, and autobiography</t>
+  </si>
+  <si>
+    <t>relational-engagement</t>
+  </si>
+  <si>
+    <t>Relational Engagement Score</t>
+  </si>
+  <si>
+    <t>Assessment of the quality of nurse-patient engagement (1-5)</t>
+  </si>
+  <si>
+    <t>cfs-score</t>
+  </si>
+  <si>
+    <t>Clinical Frailty Scale Score</t>
+  </si>
+  <si>
+    <t>Total score for Rockwood Clinical Frailty Scale</t>
+  </si>
+  <si>
+    <t>cfs-1</t>
+  </si>
+  <si>
+    <t>Very Fit</t>
+  </si>
+  <si>
+    <t>Robus, active, energetic and motivated</t>
+  </si>
+  <si>
+    <t>cfs-2</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>No active disease symptoms but less fit than category 1</t>
+  </si>
+  <si>
+    <t>cfs-3</t>
+  </si>
+  <si>
+    <t>Managing Well</t>
+  </si>
+  <si>
+    <t>Medical problems are well controlled, but not regularly active</t>
+  </si>
+  <si>
+    <t>cfs-4</t>
+  </si>
+  <si>
+    <t>Vulnerable</t>
+  </si>
+  <si>
+    <t>Not dependent for daily help, but symptoms limit activities</t>
+  </si>
+  <si>
+    <t>cfs-5</t>
+  </si>
+  <si>
+    <t>Mildly Frail</t>
+  </si>
+  <si>
+    <t>Need help with high order IADLs (finances, transportation, heavy housework)</t>
+  </si>
+  <si>
+    <t>cfs-6</t>
+  </si>
+  <si>
+    <t>Moderately Frail</t>
+  </si>
+  <si>
+    <t>Need help with all outside activities and some housekeeping</t>
+  </si>
+  <si>
+    <t>cfs-7</t>
+  </si>
+  <si>
+    <t>Severely Frail</t>
+  </si>
+  <si>
+    <t>Completely dependent for personal care</t>
+  </si>
+  <si>
+    <t>cfs-8</t>
+  </si>
+  <si>
+    <t>Very Severely Frail</t>
+  </si>
+  <si>
+    <t>Completely dependent, approaching end of life</t>
+  </si>
+  <si>
+    <t>cfs-9</t>
+  </si>
+  <si>
+    <t>Terminally Ill</t>
+  </si>
+  <si>
+    <t>Approaching the end of life (life expectancy &lt;6 months)</t>
+  </si>
+  <si>
+    <t>4at-score</t>
+  </si>
+  <si>
+    <t>4AT Delirium Score</t>
+  </si>
+  <si>
+    <t>Total score for 4AT assessment</t>
+  </si>
+  <si>
+    <t>4at-alertness</t>
+  </si>
+  <si>
+    <t>Alertness</t>
+  </si>
+  <si>
+    <t>4AT Item 1: Alertness</t>
+  </si>
+  <si>
+    <t>4at-amt4</t>
+  </si>
+  <si>
+    <t>AMT4 Score</t>
+  </si>
+  <si>
+    <t>4AT Item 2: Abbreviated Mental Test 4</t>
+  </si>
+  <si>
+    <t>4at-attention</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>4AT Item 3: Attention (Months Backwards)</t>
+  </si>
+  <si>
+    <t>4at-acute-change</t>
+  </si>
+  <si>
+    <t>Acute Change</t>
+  </si>
+  <si>
+    <t>4AT Item 4: Acute Change or Fluctuating Course</t>
+  </si>
+  <si>
+    <t>reasonable-adjustment</t>
+  </si>
+  <si>
+    <t>Reasonable Adjustment</t>
+  </si>
+  <si>
+    <t>Requirement for adjustment to care delivery (Equality Act)</t>
+  </si>
+  <si>
+    <t>mca-assessment</t>
+  </si>
+  <si>
+    <t>Mental Capacity Assessment</t>
+  </si>
+  <si>
+    <t>Assessment of capacity to make a specific decision</t>
+  </si>
+  <si>
+    <t>capacity-present</t>
+  </si>
+  <si>
+    <t>Capacity Present</t>
+  </si>
+  <si>
+    <t>Patient has capacity for this decision</t>
+  </si>
+  <si>
+    <t>capacity-absent</t>
+  </si>
+  <si>
+    <t>Capacity Absent</t>
+  </si>
+  <si>
+    <t>Patient lacks capacity for this decision</t>
+  </si>
+  <si>
+    <t>best-interest</t>
+  </si>
+  <si>
+    <t>Best Interest Decision</t>
+  </si>
+  <si>
+    <t>Decision made in patient's best interest</t>
   </si>
 </sst>
 </file>
@@ -692,7 +899,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1132,6 +1339,328 @@
         <v>126</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/CodeSystem-onc-observation-codes.xlsx
+++ b/docs/CodeSystem-onc-observation-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T15:22:58+00:00</t>
+    <t>2026-01-01T13:37:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>53</t>
+    <t>108</t>
   </si>
   <si>
     <t>Level</t>
@@ -601,6 +601,495 @@
   </si>
   <si>
     <t>Decision made in patient's best interest</t>
+  </si>
+  <si>
+    <t>bristol-score</t>
+  </si>
+  <si>
+    <t>Bristol Stool Score</t>
+  </si>
+  <si>
+    <t>Bristol Stool Form Scale Score (1-7)</t>
+  </si>
+  <si>
+    <t>bristol-1</t>
+  </si>
+  <si>
+    <t>Type 1</t>
+  </si>
+  <si>
+    <t>Separate hard lumps, like nuts (hard to pass)</t>
+  </si>
+  <si>
+    <t>bristol-2</t>
+  </si>
+  <si>
+    <t>Type 2</t>
+  </si>
+  <si>
+    <t>Sausage-shaped but lumpy</t>
+  </si>
+  <si>
+    <t>bristol-3</t>
+  </si>
+  <si>
+    <t>Type 3</t>
+  </si>
+  <si>
+    <t>Like a sausage but with cracks on its surface</t>
+  </si>
+  <si>
+    <t>bristol-4</t>
+  </si>
+  <si>
+    <t>Type 4</t>
+  </si>
+  <si>
+    <t>Like a sausage or snake, smooth and soft</t>
+  </si>
+  <si>
+    <t>bristol-5</t>
+  </si>
+  <si>
+    <t>Type 5</t>
+  </si>
+  <si>
+    <t>Soft blobs with clear-cut edges (passed easily)</t>
+  </si>
+  <si>
+    <t>bristol-6</t>
+  </si>
+  <si>
+    <t>Type 6</t>
+  </si>
+  <si>
+    <t>Fluffy pieces with ragged edges, a mushy stool</t>
+  </si>
+  <si>
+    <t>bristol-7</t>
+  </si>
+  <si>
+    <t>Type 7</t>
+  </si>
+  <si>
+    <t>Watery, no solid pieces. Entirely liquid</t>
+  </si>
+  <si>
+    <t>abbey-score</t>
+  </si>
+  <si>
+    <t>Abbey Pain Scale Score</t>
+  </si>
+  <si>
+    <t>Total Abbey Pain Scale Score (0-100+ but usually 0-18+)</t>
+  </si>
+  <si>
+    <t>abbey-vocalization</t>
+  </si>
+  <si>
+    <t>Vocalization</t>
+  </si>
+  <si>
+    <t>Whimpering, groaning, crying</t>
+  </si>
+  <si>
+    <t>abbey-facial-expression</t>
+  </si>
+  <si>
+    <t>Facial Expression</t>
+  </si>
+  <si>
+    <t>Looking tense, frowning, grimacing, looking frightened</t>
+  </si>
+  <si>
+    <t>abbey-body-language</t>
+  </si>
+  <si>
+    <t>Body Language</t>
+  </si>
+  <si>
+    <t>Fidgeting, rocking, guarding part of body, withdrawn</t>
+  </si>
+  <si>
+    <t>abbey-behavioral-change</t>
+  </si>
+  <si>
+    <t>Behavioral Change</t>
+  </si>
+  <si>
+    <t>Increased confusion, refusing to eat, alteration in usual pattern</t>
+  </si>
+  <si>
+    <t>abbey-psychological-change</t>
+  </si>
+  <si>
+    <t>Psychological Change</t>
+  </si>
+  <si>
+    <t>Temperature, pulse, blood pressure changes, perspiration, pallor</t>
+  </si>
+  <si>
+    <t>abbey-physical-changes</t>
+  </si>
+  <si>
+    <t>Physical Changes</t>
+  </si>
+  <si>
+    <t>Skin tears, pressure areas, arthritis, contractures, previous injuries</t>
+  </si>
+  <si>
+    <t>fluid-input-total</t>
+  </si>
+  <si>
+    <t>Total Fluid Input</t>
+  </si>
+  <si>
+    <t>Total fluid input over specified period (e.g. 24h)</t>
+  </si>
+  <si>
+    <t>fluid-output-total</t>
+  </si>
+  <si>
+    <t>Total Fluid Output</t>
+  </si>
+  <si>
+    <t>Total fluid output over specified period (e.g. 24h)</t>
+  </si>
+  <si>
+    <t>fluid-balance</t>
+  </si>
+  <si>
+    <t>Fluid Balance</t>
+  </si>
+  <si>
+    <t>Total Input minus Total Output</t>
+  </si>
+  <si>
+    <t>urine-output</t>
+  </si>
+  <si>
+    <t>Urine Output</t>
+  </si>
+  <si>
+    <t>Volume of urine passed</t>
+  </si>
+  <si>
+    <t>abc-chart</t>
+  </si>
+  <si>
+    <t>ABC Chart</t>
+  </si>
+  <si>
+    <t>Antecedent-Behaviour-Consequence Chart for PBS</t>
+  </si>
+  <si>
+    <t>abc-antecedent</t>
+  </si>
+  <si>
+    <t>Antecedent</t>
+  </si>
+  <si>
+    <t>What happened immediately before the behaviour (triggers)</t>
+  </si>
+  <si>
+    <t>abc-behaviour</t>
+  </si>
+  <si>
+    <t>Behaviour</t>
+  </si>
+  <si>
+    <t>Description of the behaviour itself (observable actions)</t>
+  </si>
+  <si>
+    <t>abc-consequence</t>
+  </si>
+  <si>
+    <t>Consequence</t>
+  </si>
+  <si>
+    <t>What happened immediately after (response/outcome)</t>
+  </si>
+  <si>
+    <t>abc-function</t>
+  </si>
+  <si>
+    <t>Function of Behaviour</t>
+  </si>
+  <si>
+    <t>Hypothesized function (e.g. Sensory, Escape, Attention, Tangible)</t>
+  </si>
+  <si>
+    <t>abc-duration</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Duration of the episode</t>
+  </si>
+  <si>
+    <t>abc-intensity</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>Intensity of the behaviour (1-10)</t>
+  </si>
+  <si>
+    <t>oral-health-score</t>
+  </si>
+  <si>
+    <t>Oral Health Score</t>
+  </si>
+  <si>
+    <t>Total Oral Health Assessment Score</t>
+  </si>
+  <si>
+    <t>oral-lips</t>
+  </si>
+  <si>
+    <t>Lips</t>
+  </si>
+  <si>
+    <t>Condition of lips (Pink/Moist vs Dry/Cracked)</t>
+  </si>
+  <si>
+    <t>oral-tongue</t>
+  </si>
+  <si>
+    <t>Tongue</t>
+  </si>
+  <si>
+    <t>Condition of tongue (Pink/Moist vs Coated/Red)</t>
+  </si>
+  <si>
+    <t>oral-gums</t>
+  </si>
+  <si>
+    <t>Gums</t>
+  </si>
+  <si>
+    <t>Condition of gums (Pink/Firm vs Bleeding/Receding)</t>
+  </si>
+  <si>
+    <t>oral-teeth</t>
+  </si>
+  <si>
+    <t>Teeth/Dentures</t>
+  </si>
+  <si>
+    <t>Condition of teeth or dentures (Clean/Intact vs Decayed/Broken/Loose)</t>
+  </si>
+  <si>
+    <t>oral-saliva</t>
+  </si>
+  <si>
+    <t>Saliva</t>
+  </si>
+  <si>
+    <t>Saliva quality (Moist/Watery vs Thick/Sticky/Absent)</t>
+  </si>
+  <si>
+    <t>seizure-record</t>
+  </si>
+  <si>
+    <t>Seizure Record</t>
+  </si>
+  <si>
+    <t>Record of a seizure event</t>
+  </si>
+  <si>
+    <t>seizure-type</t>
+  </si>
+  <si>
+    <t>Seizure Type</t>
+  </si>
+  <si>
+    <t>Type of seizure (Tonic-Clonic, Absence, Focal, etc)</t>
+  </si>
+  <si>
+    <t>seizure-duration</t>
+  </si>
+  <si>
+    <t>Seizure Duration</t>
+  </si>
+  <si>
+    <t>Duration of the active seizure phase</t>
+  </si>
+  <si>
+    <t>seizure-recovery</t>
+  </si>
+  <si>
+    <t>Recovery Phase</t>
+  </si>
+  <si>
+    <t>Duration/Description of post-ictal recovery</t>
+  </si>
+  <si>
+    <t>seizure-trigger</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Suspected trigger for the seizure</t>
+  </si>
+  <si>
+    <t>sleep-record</t>
+  </si>
+  <si>
+    <t>Sleep Record</t>
+  </si>
+  <si>
+    <t>Record of a sleep period</t>
+  </si>
+  <si>
+    <t>sleep-quality</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Subjective or observed quality of sleep</t>
+  </si>
+  <si>
+    <t>sleep-hours</t>
+  </si>
+  <si>
+    <t>Hours Slept</t>
+  </si>
+  <si>
+    <t>Total hours of sleep achieved</t>
+  </si>
+  <si>
+    <t>sleep-disturbances</t>
+  </si>
+  <si>
+    <t>Disturbances</t>
+  </si>
+  <si>
+    <t>Number or description of distinct awakenings</t>
+  </si>
+  <si>
+    <t>urinalysis-panel</t>
+  </si>
+  <si>
+    <t>Urinalysis Panel</t>
+  </si>
+  <si>
+    <t>Urine Dipstick Test Panel</t>
+  </si>
+  <si>
+    <t>ua-leukocytes</t>
+  </si>
+  <si>
+    <t>Leukocytes</t>
+  </si>
+  <si>
+    <t>Leukocytes (WBCs) in urine</t>
+  </si>
+  <si>
+    <t>ua-nitrites</t>
+  </si>
+  <si>
+    <t>Nitrites</t>
+  </si>
+  <si>
+    <t>Nitrites in urine</t>
+  </si>
+  <si>
+    <t>ua-protein</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Protein in urine</t>
+  </si>
+  <si>
+    <t>ua-blood</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>Blood (Hemoglobin) in urine</t>
+  </si>
+  <si>
+    <t>ua-glucose</t>
+  </si>
+  <si>
+    <t>Glucose</t>
+  </si>
+  <si>
+    <t>Glucose in urine</t>
+  </si>
+  <si>
+    <t>ua-ketones</t>
+  </si>
+  <si>
+    <t>Ketones</t>
+  </si>
+  <si>
+    <t>Ketones in urine</t>
+  </si>
+  <si>
+    <t>ua-ph</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Urine pH Level</t>
+  </si>
+  <si>
+    <t>ua-sg</t>
+  </si>
+  <si>
+    <t>Specific Gravity</t>
+  </si>
+  <si>
+    <t>Urine Specific Gravity</t>
+  </si>
+  <si>
+    <t>mca-present</t>
+  </si>
+  <si>
+    <t>4at-change-no</t>
+  </si>
+  <si>
+    <t>No Acute Change</t>
+  </si>
+  <si>
+    <t>No indication of acute change or fluctuating course</t>
+  </si>
+  <si>
+    <t>4at-amt4-1error</t>
+  </si>
+  <si>
+    <t>1 Error</t>
+  </si>
+  <si>
+    <t>1 error in AMT4 test</t>
+  </si>
+  <si>
+    <t>4at-attention-gt7</t>
+  </si>
+  <si>
+    <t>Months Backwards &lt; 7 months</t>
+  </si>
+  <si>
+    <t>Less than 7 months correctly recited backwards</t>
+  </si>
+  <si>
+    <t>4at-alert-normal</t>
+  </si>
+  <si>
+    <t>Normal Alertness</t>
+  </si>
+  <si>
+    <t>Patient is fully alert</t>
   </si>
 </sst>
 </file>
@@ -899,7 +1388,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1661,6 +2150,776 @@
         <v>195</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
